--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -1,41 +1,287 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACCCADD-27B9-4D47-8A41-9FBF29FA969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6030" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
+  <si>
+    <t>PlayerName</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>MarketValue</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>ContractMonths</t>
+  </si>
+  <si>
+    <t>TeamName</t>
+  </si>
+  <si>
+    <t>FalleN</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Furia</t>
+  </si>
+  <si>
+    <t>yuurih</t>
+  </si>
+  <si>
+    <t>YEKINDAR</t>
+  </si>
+  <si>
+    <t>KSCERATO</t>
+  </si>
+  <si>
+    <t>molodoy</t>
+  </si>
+  <si>
+    <t>bLitz</t>
+  </si>
+  <si>
+    <t>The MongolZ</t>
+  </si>
+  <si>
+    <t>Techno</t>
+  </si>
+  <si>
+    <t>Senzu</t>
+  </si>
+  <si>
+    <t>mzinho</t>
+  </si>
+  <si>
+    <t>Calyx</t>
+  </si>
+  <si>
+    <t>Eternal Fire</t>
+  </si>
+  <si>
+    <t>imoRR</t>
+  </si>
+  <si>
+    <t>maaryy</t>
+  </si>
+  <si>
+    <t>bnox</t>
+  </si>
+  <si>
+    <t>mASKED</t>
+  </si>
+  <si>
+    <t>ZywOo</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>apEX</t>
+  </si>
+  <si>
+    <t>ropz</t>
+  </si>
+  <si>
+    <t>flameZ</t>
+  </si>
+  <si>
+    <t>mezii</t>
+  </si>
+  <si>
+    <t>WOOD7</t>
+  </si>
+  <si>
+    <t>ODDIK</t>
+  </si>
+  <si>
+    <t>pancc</t>
+  </si>
+  <si>
+    <t>naitte</t>
+  </si>
+  <si>
+    <t>togs</t>
+  </si>
+  <si>
+    <t>ksloks</t>
+  </si>
+  <si>
+    <t>donk</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>sh1ro</t>
+  </si>
+  <si>
+    <t>magixx</t>
+  </si>
+  <si>
+    <t>zont1x</t>
+  </si>
+  <si>
+    <t>tN1R</t>
+  </si>
+  <si>
+    <t>chopper</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Jame</t>
+  </si>
+  <si>
+    <t>PARIVISION</t>
+  </si>
+  <si>
+    <t>BELCHONOKK</t>
+  </si>
+  <si>
+    <t>xiELO</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>zweih</t>
+  </si>
+  <si>
+    <t>Qikert</t>
+  </si>
+  <si>
+    <t>coldzera</t>
+  </si>
+  <si>
+    <t>RED Canids</t>
+  </si>
+  <si>
+    <t>ponter</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>kauez</t>
+  </si>
+  <si>
+    <t>venomzera</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>mopoz</t>
+  </si>
+  <si>
+    <t>stadodo</t>
+  </si>
+  <si>
+    <t>sausol</t>
+  </si>
+  <si>
+    <t>dav1g</t>
+  </si>
+  <si>
+    <t>dumau</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>latto</t>
+  </si>
+  <si>
+    <t>n1ssim</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>saadzin</t>
+  </si>
+  <si>
+    <t>gejmzilla</t>
+  </si>
+  <si>
+    <t>NomadS</t>
+  </si>
+  <si>
+    <t>cerber</t>
+  </si>
+  <si>
+    <t>BledarD</t>
+  </si>
+  <si>
+    <t>Caleyy</t>
+  </si>
+  <si>
+    <t>ammar</t>
+  </si>
+  <si>
+    <t>jhance</t>
+  </si>
+  <si>
+    <t>Wizards</t>
+  </si>
+  <si>
+    <t>gabe</t>
+  </si>
+  <si>
+    <t>cbass</t>
+  </si>
+  <si>
+    <t>mds</t>
+  </si>
+  <si>
+    <t>clax</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>EVP</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Titles</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +310,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,38 +651,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>PlayerName</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Role</v>
-      </c>
-      <c r="C1" t="str">
-        <v>MarketValue</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Prestige</v>
-      </c>
-      <c r="E1" t="str">
-        <v>ContractMonths</v>
-      </c>
-      <c r="F1" t="str">
-        <v>TeamName</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>FalleN</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Starter</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2">
         <v>50000</v>
@@ -438,16 +711,28 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" t="str">
-        <v>Furia</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>yuurih</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Starter</v>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>175000</v>
@@ -458,16 +743,28 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" t="str">
-        <v>Furia</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>YEKINDAR</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Starter</v>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>50000</v>
@@ -478,16 +775,28 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4" t="str">
-        <v>Furia</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>KSCERATO</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Starter</v>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>50000</v>
@@ -498,16 +807,28 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" t="str">
-        <v>Furia</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>molodoy</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Starter</v>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>50000</v>
@@ -518,19 +839,31 @@
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="F6" t="str">
-        <v>Furia</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>bLitz</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Starter</v>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -538,19 +871,31 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="str">
-        <v>The MongolZ</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Techno</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Starter</v>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -558,39 +903,63 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="str">
-        <v>The MongolZ</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Senzu</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Starter</v>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" t="str">
-        <v>The MongolZ</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>mzinho</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Starter</v>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -598,19 +967,31 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" t="str">
-        <v>The MongolZ</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>910</v>
       </c>
-      <c r="B11" t="str">
-        <v>Starter</v>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -618,16 +999,28 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" t="str">
-        <v>The MongolZ</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Calyx</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Starter</v>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
       <c r="C12">
         <v>25000</v>
@@ -638,16 +1031,28 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" t="str">
-        <v>Eternal Fire</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>imoRR</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Starter</v>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
       <c r="C13">
         <v>25000</v>
@@ -658,16 +1063,28 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" t="str">
-        <v>Eternal Fire</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>maaryy</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Starter</v>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
       <c r="C14">
         <v>25000</v>
@@ -678,16 +1095,28 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" t="str">
-        <v>Eternal Fire</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>bnox</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Starter</v>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15">
         <v>25000</v>
@@ -698,16 +1127,28 @@
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15" t="str">
-        <v>Eternal Fire</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>mASKED</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Starter</v>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
       <c r="C16">
         <v>25000</v>
@@ -718,16 +1159,28 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" t="str">
-        <v>Eternal Fire</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>ZywOo</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Starter</v>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17">
         <v>240000</v>
@@ -738,16 +1191,28 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" t="str">
-        <v>Vitality</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>apEX</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Starter</v>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
       </c>
       <c r="C18">
         <v>120000</v>
@@ -758,16 +1223,28 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="str">
-        <v>Vitality</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>ropz</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Starter</v>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
       <c r="C19">
         <v>60000</v>
@@ -778,16 +1255,28 @@
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" t="str">
-        <v>Vitality</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>flameZ</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Starter</v>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
       </c>
       <c r="C20">
         <v>50000</v>
@@ -798,16 +1287,28 @@
       <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" t="str">
-        <v>Vitality</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>mezii</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Starter</v>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21">
         <v>50000</v>
@@ -818,16 +1319,28 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" t="str">
-        <v>Vitality</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>WOOD7</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Starter</v>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
       </c>
       <c r="C22">
         <v>10000</v>
@@ -838,16 +1351,28 @@
       <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" t="str">
-        <v>ODDIK</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>pancc</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Starter</v>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23">
         <v>10000</v>
@@ -858,16 +1383,28 @@
       <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" t="str">
-        <v>ODDIK</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>naitte</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Starter</v>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
       </c>
       <c r="C24">
         <v>10000</v>
@@ -878,16 +1415,28 @@
       <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24" t="str">
-        <v>ODDIK</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>togs</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Starter</v>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
       </c>
       <c r="C25">
         <v>10000</v>
@@ -898,16 +1447,28 @@
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" t="str">
-        <v>ODDIK</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>ksloks</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Starter</v>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
       </c>
       <c r="C26">
         <v>10000</v>
@@ -918,16 +1479,28 @@
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" t="str">
-        <v>ODDIK</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>donk</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Starter</v>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
       </c>
       <c r="C27">
         <v>83200</v>
@@ -938,16 +1511,28 @@
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" t="str">
-        <v>Spirit</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>sh1ro</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Starter</v>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
       </c>
       <c r="C28">
         <v>63200</v>
@@ -958,16 +1543,28 @@
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" t="str">
-        <v>Spirit</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>magixx</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Starter</v>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
       </c>
       <c r="C29">
         <v>53200</v>
@@ -978,16 +1575,28 @@
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" t="str">
-        <v>Spirit</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>zont1x</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Starter</v>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
       </c>
       <c r="C30">
         <v>53200</v>
@@ -998,16 +1607,28 @@
       <c r="E30">
         <v>6</v>
       </c>
-      <c r="F30" t="str">
-        <v>Spirit</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>tN1R</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Starter</v>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31">
         <v>43200</v>
@@ -1018,16 +1639,28 @@
       <c r="E31">
         <v>6</v>
       </c>
-      <c r="F31" t="str">
-        <v>Spirit</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>chopper</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Bench</v>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
       </c>
       <c r="C32">
         <v>20000</v>
@@ -1038,16 +1671,28 @@
       <c r="E32">
         <v>6</v>
       </c>
-      <c r="F32" t="str">
-        <v>Spirit</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Jame</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Starter</v>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33">
         <v>60000</v>
@@ -1058,16 +1703,28 @@
       <c r="E33">
         <v>6</v>
       </c>
-      <c r="F33" t="str">
-        <v>PARIVISION</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>BELCHONOKK</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Starter</v>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
       </c>
       <c r="C34">
         <v>40000</v>
@@ -1078,16 +1735,28 @@
       <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34" t="str">
-        <v>PARIVISION</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>xiELO</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Starter</v>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
       </c>
       <c r="C35">
         <v>40000</v>
@@ -1098,16 +1767,28 @@
       <c r="E35">
         <v>6</v>
       </c>
-      <c r="F35" t="str">
-        <v>PARIVISION</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>nota</v>
-      </c>
-      <c r="B36" t="str">
-        <v>Starter</v>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
       </c>
       <c r="C36">
         <v>30000</v>
@@ -1118,16 +1799,28 @@
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" t="str">
-        <v>PARIVISION</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>zweih</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Starter</v>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
       </c>
       <c r="C37">
         <v>20000</v>
@@ -1138,16 +1831,28 @@
       <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" t="str">
-        <v>PARIVISION</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Qikert</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Bench</v>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
       </c>
       <c r="C38">
         <v>5000</v>
@@ -1158,16 +1863,28 @@
       <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" t="str">
-        <v>PARIVISION</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>coldzera</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Starter</v>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
       </c>
       <c r="C39">
         <v>1200</v>
@@ -1178,16 +1895,28 @@
       <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" t="str">
-        <v>RED Canids</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>ponter</v>
-      </c>
-      <c r="B40" t="str">
-        <v>Starter</v>
+      <c r="F39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
       </c>
       <c r="C40">
         <v>5000</v>
@@ -1198,16 +1927,28 @@
       <c r="E40">
         <v>6</v>
       </c>
-      <c r="F40" t="str">
-        <v>RED Canids</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>drop</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Starter</v>
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
       </c>
       <c r="C41">
         <v>8000</v>
@@ -1218,16 +1959,28 @@
       <c r="E41">
         <v>6</v>
       </c>
-      <c r="F41" t="str">
-        <v>RED Canids</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>kauez</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Starter</v>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
       </c>
       <c r="C42">
         <v>12000</v>
@@ -1238,16 +1991,28 @@
       <c r="E42">
         <v>6</v>
       </c>
-      <c r="F42" t="str">
-        <v>RED Canids</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>venomzera</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Starter</v>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
       </c>
       <c r="C43">
         <v>1000</v>
@@ -1258,16 +2023,28 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" t="str">
-        <v>RED Canids</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>alex</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Starter</v>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
       </c>
       <c r="C44">
         <v>540</v>
@@ -1278,16 +2055,28 @@
       <c r="E44">
         <v>6</v>
       </c>
-      <c r="F44" t="str">
-        <v>Orbit</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>mopoz</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Starter</v>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
       </c>
       <c r="C45">
         <v>200</v>
@@ -1298,16 +2087,28 @@
       <c r="E45">
         <v>6</v>
       </c>
-      <c r="F45" t="str">
-        <v>Orbit</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>stadodo</v>
-      </c>
-      <c r="B46" t="str">
-        <v>Starter</v>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46">
         <v>1000</v>
@@ -1318,16 +2119,28 @@
       <c r="E46">
         <v>6</v>
       </c>
-      <c r="F46" t="str">
-        <v>Orbit</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>sausol</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Starter</v>
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47">
         <v>3000</v>
@@ -1338,16 +2151,28 @@
       <c r="E47">
         <v>6</v>
       </c>
-      <c r="F47" t="str">
-        <v>Orbit</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>dav1g</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Starter</v>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48">
         <v>5400</v>
@@ -1358,16 +2183,28 @@
       <c r="E48">
         <v>6</v>
       </c>
-      <c r="F48" t="str">
-        <v>Orbit</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>dumau</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Starter</v>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5020</v>
@@ -1378,16 +2215,28 @@
       <c r="E49">
         <v>6</v>
       </c>
-      <c r="F49" t="str">
-        <v>Legacy</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>latto</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Starter</v>
+      <c r="F49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50">
         <v>40000</v>
@@ -1398,16 +2247,28 @@
       <c r="E50">
         <v>6</v>
       </c>
-      <c r="F50" t="str">
-        <v>Legacy</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>n1ssim</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Starter</v>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>1000</v>
@@ -1418,16 +2279,28 @@
       <c r="E51">
         <v>6</v>
       </c>
-      <c r="F51" t="str">
-        <v>Legacy</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>lux</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Starter</v>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>4000</v>
@@ -1438,16 +2311,28 @@
       <c r="E52">
         <v>6</v>
       </c>
-      <c r="F52" t="str">
-        <v>Legacy</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>saadzin</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Starter</v>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53">
         <v>5000</v>
@@ -1458,16 +2343,28 @@
       <c r="E53">
         <v>6</v>
       </c>
-      <c r="F53" t="str">
-        <v>Legacy</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>gejmzilla</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Starter</v>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54">
         <v>6000</v>
@@ -1478,16 +2375,28 @@
       <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" t="str">
-        <v>NomadS</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>cerber</v>
-      </c>
-      <c r="B55" t="str">
-        <v>Starter</v>
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55">
         <v>8000</v>
@@ -1498,16 +2407,28 @@
       <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" t="str">
-        <v>NomadS</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>BledarD</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Starter</v>
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56">
         <v>10000</v>
@@ -1518,16 +2439,28 @@
       <c r="E56">
         <v>6</v>
       </c>
-      <c r="F56" t="str">
-        <v>NomadS</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Caleyy</v>
-      </c>
-      <c r="B57" t="str">
-        <v>Starter</v>
+      <c r="F56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57">
         <v>12000</v>
@@ -1538,16 +2471,28 @@
       <c r="E57">
         <v>6</v>
       </c>
-      <c r="F57" t="str">
-        <v>NomadS</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>ammar</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Starter</v>
+      <c r="F57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58">
         <v>12000</v>
@@ -1558,16 +2503,28 @@
       <c r="E58">
         <v>6</v>
       </c>
-      <c r="F58" t="str">
-        <v>NomadS</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>jhance</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Starter</v>
+      <c r="F58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59">
         <v>12000</v>
@@ -1578,16 +2535,28 @@
       <c r="E59">
         <v>6</v>
       </c>
-      <c r="F59" t="str">
-        <v>Wizards</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>gabe</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Starter</v>
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60">
         <v>12000</v>
@@ -1598,16 +2567,28 @@
       <c r="E60">
         <v>6</v>
       </c>
-      <c r="F60" t="str">
-        <v>Wizards</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>cbass</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Starter</v>
+      <c r="F60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61">
         <v>12000</v>
@@ -1618,16 +2599,28 @@
       <c r="E61">
         <v>6</v>
       </c>
-      <c r="F61" t="str">
-        <v>Wizards</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>mds</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Starter</v>
+      <c r="F61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62">
         <v>1000</v>
@@ -1638,16 +2631,28 @@
       <c r="E62">
         <v>6</v>
       </c>
-      <c r="F62" t="str">
-        <v>Wizards</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>clax</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Starter</v>
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63">
         <v>1000</v>
@@ -1658,13 +2663,26 @@
       <c r="E63">
         <v>6</v>
       </c>
-      <c r="F63" t="str">
-        <v>Wizards</v>
+      <c r="F63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F63"/>
+    <ignoredError sqref="A1:F8 A12:F31 A11:D11 F11 A10:F10 A9:D9 F9 A33:F63 A32:D32 F32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973E5B0C-31C0-4266-9AEE-E326153FD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2E9A5-50E7-4618-A116-94A76E9C1672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3025,7 +3025,7 @@
     <t>Prize Pool</t>
   </si>
   <si>
-    <t>Prestige</t>
+    <t>Market Value</t>
   </si>
 </sst>
 </file>
@@ -3412,7 +3412,7 @@
   <dimension ref="A1:O829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3477,10 +3477,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -42389,7 +42389,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 B2 D2 E1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 B2 E1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2E9A5-50E7-4618-A116-94A76E9C1672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5778F-9449-4958-B81D-0A8A67FC5982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3412,7 +3412,7 @@
   <dimension ref="A1:O829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3477,10 +3477,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">

--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5778F-9449-4958-B81D-0A8A67FC5982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB923557-2376-4823-9C7F-D2C57917B4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1890" windowWidth="21585" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1037">
   <si>
     <t>PlayerName</t>
   </si>
@@ -3026,6 +3026,111 @@
   </si>
   <si>
     <t>Market Value</t>
+  </si>
+  <si>
+    <t>senka</t>
+  </si>
+  <si>
+    <t>soufly</t>
+  </si>
+  <si>
+    <t>AZUWU</t>
+  </si>
+  <si>
+    <t>Bymas</t>
+  </si>
+  <si>
+    <t>n0rb3r7</t>
+  </si>
+  <si>
+    <t>frontales</t>
+  </si>
+  <si>
+    <t>kl1m</t>
+  </si>
+  <si>
+    <t>Chr1zN</t>
+  </si>
+  <si>
+    <t>dycha</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>cej0t</t>
+  </si>
+  <si>
+    <t>gafolo</t>
+  </si>
+  <si>
+    <t>maxster</t>
+  </si>
+  <si>
+    <t>KaiR0N-</t>
+  </si>
+  <si>
+    <t>diskyb0b</t>
+  </si>
+  <si>
+    <t>z1k4</t>
+  </si>
+  <si>
+    <t>flouzer</t>
+  </si>
+  <si>
+    <t>ayuki</t>
+  </si>
+  <si>
+    <t>kRaSnaL</t>
+  </si>
+  <si>
+    <t>chayJESUS</t>
+  </si>
+  <si>
+    <t>hades</t>
+  </si>
+  <si>
+    <t>Dr3nquu</t>
+  </si>
+  <si>
+    <t>eskyy</t>
+  </si>
+  <si>
+    <t>b1efany</t>
+  </si>
+  <si>
+    <t>falyy</t>
+  </si>
+  <si>
+    <t>Qiocuu</t>
+  </si>
+  <si>
+    <t>text1y</t>
+  </si>
+  <si>
+    <t>yiksrezo</t>
+  </si>
+  <si>
+    <t>opdust</t>
+  </si>
+  <si>
+    <t>xelex</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>ay0k</t>
+  </si>
+  <si>
+    <t>Nikodeon</t>
+  </si>
+  <si>
+    <t>interz</t>
   </si>
 </sst>
 </file>
@@ -3074,7 +3179,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3409,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O829"/>
+  <dimension ref="A1:O864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A810" workbookViewId="0">
+      <selection activeCell="G816" sqref="G816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42023,7 +42139,7 @@
         <v>0</v>
       </c>
       <c r="E822">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F822" t="s">
         <v>840</v>
@@ -42070,7 +42186,7 @@
         <v>0</v>
       </c>
       <c r="E823">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F823" t="s">
         <v>840</v>
@@ -42117,7 +42233,7 @@
         <v>0</v>
       </c>
       <c r="E824">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F824" t="s">
         <v>840</v>
@@ -42164,7 +42280,7 @@
         <v>0</v>
       </c>
       <c r="E825">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F825" t="s">
         <v>840</v>
@@ -42211,7 +42327,7 @@
         <v>0</v>
       </c>
       <c r="E826">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F826" t="s">
         <v>840</v>
@@ -42258,7 +42374,7 @@
         <v>0</v>
       </c>
       <c r="E827">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F827" t="s">
         <v>840</v>
@@ -42305,7 +42421,7 @@
         <v>0</v>
       </c>
       <c r="E828">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F828" t="s">
         <v>840</v>
@@ -42352,7 +42468,7 @@
         <v>0</v>
       </c>
       <c r="E829">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F829" t="s">
         <v>840</v>
@@ -42385,8 +42501,1656 @@
         <v>0</v>
       </c>
     </row>
+    <row r="830" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B830" t="s">
+        <v>841</v>
+      </c>
+      <c r="C830">
+        <v>0</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>0</v>
+      </c>
+      <c r="F830" t="s">
+        <v>840</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830">
+        <v>0</v>
+      </c>
+      <c r="I830">
+        <v>0</v>
+      </c>
+      <c r="J830">
+        <v>0</v>
+      </c>
+      <c r="K830">
+        <v>0</v>
+      </c>
+      <c r="L830">
+        <v>0</v>
+      </c>
+      <c r="M830">
+        <v>0</v>
+      </c>
+      <c r="N830">
+        <v>0</v>
+      </c>
+      <c r="O830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B831" t="s">
+        <v>841</v>
+      </c>
+      <c r="C831">
+        <v>0</v>
+      </c>
+      <c r="D831">
+        <v>0</v>
+      </c>
+      <c r="E831">
+        <v>0</v>
+      </c>
+      <c r="F831" t="s">
+        <v>840</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
+      </c>
+      <c r="H831">
+        <v>0</v>
+      </c>
+      <c r="I831">
+        <v>0</v>
+      </c>
+      <c r="J831">
+        <v>0</v>
+      </c>
+      <c r="K831">
+        <v>0</v>
+      </c>
+      <c r="L831">
+        <v>0</v>
+      </c>
+      <c r="M831">
+        <v>0</v>
+      </c>
+      <c r="N831">
+        <v>0</v>
+      </c>
+      <c r="O831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B832" t="s">
+        <v>841</v>
+      </c>
+      <c r="C832">
+        <v>0</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+      <c r="E832">
+        <v>0</v>
+      </c>
+      <c r="F832" t="s">
+        <v>840</v>
+      </c>
+      <c r="G832">
+        <v>0</v>
+      </c>
+      <c r="H832">
+        <v>0</v>
+      </c>
+      <c r="I832">
+        <v>0</v>
+      </c>
+      <c r="J832">
+        <v>0</v>
+      </c>
+      <c r="K832">
+        <v>0</v>
+      </c>
+      <c r="L832">
+        <v>0</v>
+      </c>
+      <c r="M832">
+        <v>0</v>
+      </c>
+      <c r="N832">
+        <v>0</v>
+      </c>
+      <c r="O832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B833" t="s">
+        <v>841</v>
+      </c>
+      <c r="C833">
+        <v>0</v>
+      </c>
+      <c r="D833">
+        <v>0</v>
+      </c>
+      <c r="E833">
+        <v>0</v>
+      </c>
+      <c r="F833" t="s">
+        <v>840</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+      <c r="H833">
+        <v>0</v>
+      </c>
+      <c r="I833">
+        <v>0</v>
+      </c>
+      <c r="J833">
+        <v>0</v>
+      </c>
+      <c r="K833">
+        <v>0</v>
+      </c>
+      <c r="L833">
+        <v>0</v>
+      </c>
+      <c r="M833">
+        <v>0</v>
+      </c>
+      <c r="N833">
+        <v>0</v>
+      </c>
+      <c r="O833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B834" t="s">
+        <v>841</v>
+      </c>
+      <c r="C834">
+        <v>0</v>
+      </c>
+      <c r="D834">
+        <v>0</v>
+      </c>
+      <c r="E834">
+        <v>0</v>
+      </c>
+      <c r="F834" t="s">
+        <v>840</v>
+      </c>
+      <c r="G834">
+        <v>0</v>
+      </c>
+      <c r="H834">
+        <v>0</v>
+      </c>
+      <c r="I834">
+        <v>0</v>
+      </c>
+      <c r="J834">
+        <v>0</v>
+      </c>
+      <c r="K834">
+        <v>0</v>
+      </c>
+      <c r="L834">
+        <v>0</v>
+      </c>
+      <c r="M834">
+        <v>0</v>
+      </c>
+      <c r="N834">
+        <v>0</v>
+      </c>
+      <c r="O834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B835" t="s">
+        <v>841</v>
+      </c>
+      <c r="C835">
+        <v>0</v>
+      </c>
+      <c r="D835">
+        <v>0</v>
+      </c>
+      <c r="E835">
+        <v>0</v>
+      </c>
+      <c r="F835" t="s">
+        <v>840</v>
+      </c>
+      <c r="G835">
+        <v>0</v>
+      </c>
+      <c r="H835">
+        <v>0</v>
+      </c>
+      <c r="I835">
+        <v>0</v>
+      </c>
+      <c r="J835">
+        <v>0</v>
+      </c>
+      <c r="K835">
+        <v>0</v>
+      </c>
+      <c r="L835">
+        <v>0</v>
+      </c>
+      <c r="M835">
+        <v>0</v>
+      </c>
+      <c r="N835">
+        <v>0</v>
+      </c>
+      <c r="O835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B836" t="s">
+        <v>841</v>
+      </c>
+      <c r="C836">
+        <v>0</v>
+      </c>
+      <c r="D836">
+        <v>0</v>
+      </c>
+      <c r="E836">
+        <v>0</v>
+      </c>
+      <c r="F836" t="s">
+        <v>840</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+      <c r="H836">
+        <v>0</v>
+      </c>
+      <c r="I836">
+        <v>0</v>
+      </c>
+      <c r="J836">
+        <v>0</v>
+      </c>
+      <c r="K836">
+        <v>0</v>
+      </c>
+      <c r="L836">
+        <v>0</v>
+      </c>
+      <c r="M836">
+        <v>0</v>
+      </c>
+      <c r="N836">
+        <v>0</v>
+      </c>
+      <c r="O836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B837" t="s">
+        <v>841</v>
+      </c>
+      <c r="C837">
+        <v>0</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837">
+        <v>0</v>
+      </c>
+      <c r="F837" t="s">
+        <v>840</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837">
+        <v>0</v>
+      </c>
+      <c r="I837">
+        <v>0</v>
+      </c>
+      <c r="J837">
+        <v>0</v>
+      </c>
+      <c r="K837">
+        <v>0</v>
+      </c>
+      <c r="L837">
+        <v>0</v>
+      </c>
+      <c r="M837">
+        <v>0</v>
+      </c>
+      <c r="N837">
+        <v>0</v>
+      </c>
+      <c r="O837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B838" t="s">
+        <v>841</v>
+      </c>
+      <c r="C838">
+        <v>0</v>
+      </c>
+      <c r="D838">
+        <v>0</v>
+      </c>
+      <c r="E838">
+        <v>0</v>
+      </c>
+      <c r="F838" t="s">
+        <v>840</v>
+      </c>
+      <c r="G838">
+        <v>0</v>
+      </c>
+      <c r="H838">
+        <v>0</v>
+      </c>
+      <c r="I838">
+        <v>0</v>
+      </c>
+      <c r="J838">
+        <v>0</v>
+      </c>
+      <c r="K838">
+        <v>0</v>
+      </c>
+      <c r="L838">
+        <v>0</v>
+      </c>
+      <c r="M838">
+        <v>0</v>
+      </c>
+      <c r="N838">
+        <v>0</v>
+      </c>
+      <c r="O838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B839" t="s">
+        <v>841</v>
+      </c>
+      <c r="C839">
+        <v>0</v>
+      </c>
+      <c r="D839">
+        <v>0</v>
+      </c>
+      <c r="E839">
+        <v>0</v>
+      </c>
+      <c r="F839" t="s">
+        <v>840</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+      <c r="H839">
+        <v>0</v>
+      </c>
+      <c r="I839">
+        <v>0</v>
+      </c>
+      <c r="J839">
+        <v>0</v>
+      </c>
+      <c r="K839">
+        <v>0</v>
+      </c>
+      <c r="L839">
+        <v>0</v>
+      </c>
+      <c r="M839">
+        <v>0</v>
+      </c>
+      <c r="N839">
+        <v>0</v>
+      </c>
+      <c r="O839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B840" t="s">
+        <v>841</v>
+      </c>
+      <c r="C840">
+        <v>0</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840">
+        <v>0</v>
+      </c>
+      <c r="F840" t="s">
+        <v>840</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+      <c r="H840">
+        <v>0</v>
+      </c>
+      <c r="I840">
+        <v>0</v>
+      </c>
+      <c r="J840">
+        <v>0</v>
+      </c>
+      <c r="K840">
+        <v>0</v>
+      </c>
+      <c r="L840">
+        <v>0</v>
+      </c>
+      <c r="M840">
+        <v>0</v>
+      </c>
+      <c r="N840">
+        <v>0</v>
+      </c>
+      <c r="O840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B841" t="s">
+        <v>841</v>
+      </c>
+      <c r="C841">
+        <v>0</v>
+      </c>
+      <c r="D841">
+        <v>0</v>
+      </c>
+      <c r="E841">
+        <v>0</v>
+      </c>
+      <c r="F841" t="s">
+        <v>840</v>
+      </c>
+      <c r="G841">
+        <v>0</v>
+      </c>
+      <c r="H841">
+        <v>0</v>
+      </c>
+      <c r="I841">
+        <v>0</v>
+      </c>
+      <c r="J841">
+        <v>0</v>
+      </c>
+      <c r="K841">
+        <v>0</v>
+      </c>
+      <c r="L841">
+        <v>0</v>
+      </c>
+      <c r="M841">
+        <v>0</v>
+      </c>
+      <c r="N841">
+        <v>0</v>
+      </c>
+      <c r="O841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B842" t="s">
+        <v>841</v>
+      </c>
+      <c r="C842">
+        <v>0</v>
+      </c>
+      <c r="D842">
+        <v>0</v>
+      </c>
+      <c r="E842">
+        <v>0</v>
+      </c>
+      <c r="F842" t="s">
+        <v>840</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+      <c r="H842">
+        <v>0</v>
+      </c>
+      <c r="I842">
+        <v>0</v>
+      </c>
+      <c r="J842">
+        <v>0</v>
+      </c>
+      <c r="K842">
+        <v>0</v>
+      </c>
+      <c r="L842">
+        <v>0</v>
+      </c>
+      <c r="M842">
+        <v>0</v>
+      </c>
+      <c r="N842">
+        <v>0</v>
+      </c>
+      <c r="O842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B843" t="s">
+        <v>841</v>
+      </c>
+      <c r="C843">
+        <v>0</v>
+      </c>
+      <c r="D843">
+        <v>0</v>
+      </c>
+      <c r="E843">
+        <v>0</v>
+      </c>
+      <c r="F843" t="s">
+        <v>840</v>
+      </c>
+      <c r="G843">
+        <v>0</v>
+      </c>
+      <c r="H843">
+        <v>0</v>
+      </c>
+      <c r="I843">
+        <v>0</v>
+      </c>
+      <c r="J843">
+        <v>0</v>
+      </c>
+      <c r="K843">
+        <v>0</v>
+      </c>
+      <c r="L843">
+        <v>0</v>
+      </c>
+      <c r="M843">
+        <v>0</v>
+      </c>
+      <c r="N843">
+        <v>0</v>
+      </c>
+      <c r="O843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B844" t="s">
+        <v>841</v>
+      </c>
+      <c r="C844">
+        <v>0</v>
+      </c>
+      <c r="D844">
+        <v>0</v>
+      </c>
+      <c r="E844">
+        <v>0</v>
+      </c>
+      <c r="F844" t="s">
+        <v>840</v>
+      </c>
+      <c r="G844">
+        <v>0</v>
+      </c>
+      <c r="H844">
+        <v>0</v>
+      </c>
+      <c r="I844">
+        <v>0</v>
+      </c>
+      <c r="J844">
+        <v>0</v>
+      </c>
+      <c r="K844">
+        <v>0</v>
+      </c>
+      <c r="L844">
+        <v>0</v>
+      </c>
+      <c r="M844">
+        <v>0</v>
+      </c>
+      <c r="N844">
+        <v>0</v>
+      </c>
+      <c r="O844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B845" t="s">
+        <v>841</v>
+      </c>
+      <c r="C845">
+        <v>0</v>
+      </c>
+      <c r="D845">
+        <v>0</v>
+      </c>
+      <c r="E845">
+        <v>0</v>
+      </c>
+      <c r="F845" t="s">
+        <v>840</v>
+      </c>
+      <c r="G845">
+        <v>0</v>
+      </c>
+      <c r="H845">
+        <v>0</v>
+      </c>
+      <c r="I845">
+        <v>0</v>
+      </c>
+      <c r="J845">
+        <v>0</v>
+      </c>
+      <c r="K845">
+        <v>0</v>
+      </c>
+      <c r="L845">
+        <v>0</v>
+      </c>
+      <c r="M845">
+        <v>0</v>
+      </c>
+      <c r="N845">
+        <v>0</v>
+      </c>
+      <c r="O845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B846" t="s">
+        <v>841</v>
+      </c>
+      <c r="C846">
+        <v>0</v>
+      </c>
+      <c r="D846">
+        <v>0</v>
+      </c>
+      <c r="E846">
+        <v>0</v>
+      </c>
+      <c r="F846" t="s">
+        <v>840</v>
+      </c>
+      <c r="G846">
+        <v>0</v>
+      </c>
+      <c r="H846">
+        <v>0</v>
+      </c>
+      <c r="I846">
+        <v>0</v>
+      </c>
+      <c r="J846">
+        <v>0</v>
+      </c>
+      <c r="K846">
+        <v>0</v>
+      </c>
+      <c r="L846">
+        <v>0</v>
+      </c>
+      <c r="M846">
+        <v>0</v>
+      </c>
+      <c r="N846">
+        <v>0</v>
+      </c>
+      <c r="O846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B847" t="s">
+        <v>841</v>
+      </c>
+      <c r="C847">
+        <v>0</v>
+      </c>
+      <c r="D847">
+        <v>0</v>
+      </c>
+      <c r="E847">
+        <v>0</v>
+      </c>
+      <c r="F847" t="s">
+        <v>840</v>
+      </c>
+      <c r="G847">
+        <v>0</v>
+      </c>
+      <c r="H847">
+        <v>0</v>
+      </c>
+      <c r="I847">
+        <v>0</v>
+      </c>
+      <c r="J847">
+        <v>0</v>
+      </c>
+      <c r="K847">
+        <v>0</v>
+      </c>
+      <c r="L847">
+        <v>0</v>
+      </c>
+      <c r="M847">
+        <v>0</v>
+      </c>
+      <c r="N847">
+        <v>0</v>
+      </c>
+      <c r="O847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B848" t="s">
+        <v>841</v>
+      </c>
+      <c r="C848">
+        <v>0</v>
+      </c>
+      <c r="D848">
+        <v>0</v>
+      </c>
+      <c r="E848">
+        <v>0</v>
+      </c>
+      <c r="F848" t="s">
+        <v>840</v>
+      </c>
+      <c r="G848">
+        <v>0</v>
+      </c>
+      <c r="H848">
+        <v>0</v>
+      </c>
+      <c r="I848">
+        <v>0</v>
+      </c>
+      <c r="J848">
+        <v>0</v>
+      </c>
+      <c r="K848">
+        <v>0</v>
+      </c>
+      <c r="L848">
+        <v>0</v>
+      </c>
+      <c r="M848">
+        <v>0</v>
+      </c>
+      <c r="N848">
+        <v>0</v>
+      </c>
+      <c r="O848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B849" t="s">
+        <v>841</v>
+      </c>
+      <c r="C849">
+        <v>0</v>
+      </c>
+      <c r="D849">
+        <v>0</v>
+      </c>
+      <c r="E849">
+        <v>0</v>
+      </c>
+      <c r="F849" t="s">
+        <v>840</v>
+      </c>
+      <c r="G849">
+        <v>0</v>
+      </c>
+      <c r="H849">
+        <v>0</v>
+      </c>
+      <c r="I849">
+        <v>0</v>
+      </c>
+      <c r="J849">
+        <v>0</v>
+      </c>
+      <c r="K849">
+        <v>0</v>
+      </c>
+      <c r="L849">
+        <v>0</v>
+      </c>
+      <c r="M849">
+        <v>0</v>
+      </c>
+      <c r="N849">
+        <v>0</v>
+      </c>
+      <c r="O849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B850" t="s">
+        <v>841</v>
+      </c>
+      <c r="C850">
+        <v>0</v>
+      </c>
+      <c r="D850">
+        <v>0</v>
+      </c>
+      <c r="E850">
+        <v>0</v>
+      </c>
+      <c r="F850" t="s">
+        <v>840</v>
+      </c>
+      <c r="G850">
+        <v>0</v>
+      </c>
+      <c r="H850">
+        <v>0</v>
+      </c>
+      <c r="I850">
+        <v>0</v>
+      </c>
+      <c r="J850">
+        <v>0</v>
+      </c>
+      <c r="K850">
+        <v>0</v>
+      </c>
+      <c r="L850">
+        <v>0</v>
+      </c>
+      <c r="M850">
+        <v>0</v>
+      </c>
+      <c r="N850">
+        <v>0</v>
+      </c>
+      <c r="O850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B851" t="s">
+        <v>841</v>
+      </c>
+      <c r="C851">
+        <v>0</v>
+      </c>
+      <c r="D851">
+        <v>0</v>
+      </c>
+      <c r="E851">
+        <v>0</v>
+      </c>
+      <c r="F851" t="s">
+        <v>840</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+      <c r="H851">
+        <v>0</v>
+      </c>
+      <c r="I851">
+        <v>0</v>
+      </c>
+      <c r="J851">
+        <v>0</v>
+      </c>
+      <c r="K851">
+        <v>0</v>
+      </c>
+      <c r="L851">
+        <v>0</v>
+      </c>
+      <c r="M851">
+        <v>0</v>
+      </c>
+      <c r="N851">
+        <v>0</v>
+      </c>
+      <c r="O851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B852" t="s">
+        <v>841</v>
+      </c>
+      <c r="C852">
+        <v>0</v>
+      </c>
+      <c r="D852">
+        <v>0</v>
+      </c>
+      <c r="E852">
+        <v>0</v>
+      </c>
+      <c r="F852" t="s">
+        <v>840</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+      <c r="H852">
+        <v>0</v>
+      </c>
+      <c r="I852">
+        <v>0</v>
+      </c>
+      <c r="J852">
+        <v>0</v>
+      </c>
+      <c r="K852">
+        <v>0</v>
+      </c>
+      <c r="L852">
+        <v>0</v>
+      </c>
+      <c r="M852">
+        <v>0</v>
+      </c>
+      <c r="N852">
+        <v>0</v>
+      </c>
+      <c r="O852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B853" t="s">
+        <v>841</v>
+      </c>
+      <c r="C853">
+        <v>0</v>
+      </c>
+      <c r="D853">
+        <v>0</v>
+      </c>
+      <c r="E853">
+        <v>0</v>
+      </c>
+      <c r="F853" t="s">
+        <v>840</v>
+      </c>
+      <c r="G853">
+        <v>0</v>
+      </c>
+      <c r="H853">
+        <v>0</v>
+      </c>
+      <c r="I853">
+        <v>0</v>
+      </c>
+      <c r="J853">
+        <v>0</v>
+      </c>
+      <c r="K853">
+        <v>0</v>
+      </c>
+      <c r="L853">
+        <v>0</v>
+      </c>
+      <c r="M853">
+        <v>0</v>
+      </c>
+      <c r="N853">
+        <v>0</v>
+      </c>
+      <c r="O853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B854" t="s">
+        <v>841</v>
+      </c>
+      <c r="C854">
+        <v>0</v>
+      </c>
+      <c r="D854">
+        <v>0</v>
+      </c>
+      <c r="E854">
+        <v>0</v>
+      </c>
+      <c r="F854" t="s">
+        <v>840</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+      <c r="H854">
+        <v>0</v>
+      </c>
+      <c r="I854">
+        <v>0</v>
+      </c>
+      <c r="J854">
+        <v>0</v>
+      </c>
+      <c r="K854">
+        <v>0</v>
+      </c>
+      <c r="L854">
+        <v>0</v>
+      </c>
+      <c r="M854">
+        <v>0</v>
+      </c>
+      <c r="N854">
+        <v>0</v>
+      </c>
+      <c r="O854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B855" t="s">
+        <v>841</v>
+      </c>
+      <c r="C855">
+        <v>0</v>
+      </c>
+      <c r="D855">
+        <v>0</v>
+      </c>
+      <c r="E855">
+        <v>0</v>
+      </c>
+      <c r="F855" t="s">
+        <v>840</v>
+      </c>
+      <c r="G855">
+        <v>0</v>
+      </c>
+      <c r="H855">
+        <v>0</v>
+      </c>
+      <c r="I855">
+        <v>0</v>
+      </c>
+      <c r="J855">
+        <v>0</v>
+      </c>
+      <c r="K855">
+        <v>0</v>
+      </c>
+      <c r="L855">
+        <v>0</v>
+      </c>
+      <c r="M855">
+        <v>0</v>
+      </c>
+      <c r="N855">
+        <v>0</v>
+      </c>
+      <c r="O855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B856" t="s">
+        <v>841</v>
+      </c>
+      <c r="C856">
+        <v>0</v>
+      </c>
+      <c r="D856">
+        <v>0</v>
+      </c>
+      <c r="E856">
+        <v>0</v>
+      </c>
+      <c r="F856" t="s">
+        <v>840</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+      <c r="H856">
+        <v>0</v>
+      </c>
+      <c r="I856">
+        <v>0</v>
+      </c>
+      <c r="J856">
+        <v>0</v>
+      </c>
+      <c r="K856">
+        <v>0</v>
+      </c>
+      <c r="L856">
+        <v>0</v>
+      </c>
+      <c r="M856">
+        <v>0</v>
+      </c>
+      <c r="N856">
+        <v>0</v>
+      </c>
+      <c r="O856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B857" t="s">
+        <v>841</v>
+      </c>
+      <c r="C857">
+        <v>0</v>
+      </c>
+      <c r="D857">
+        <v>0</v>
+      </c>
+      <c r="E857">
+        <v>0</v>
+      </c>
+      <c r="F857" t="s">
+        <v>840</v>
+      </c>
+      <c r="G857">
+        <v>0</v>
+      </c>
+      <c r="H857">
+        <v>0</v>
+      </c>
+      <c r="I857">
+        <v>0</v>
+      </c>
+      <c r="J857">
+        <v>0</v>
+      </c>
+      <c r="K857">
+        <v>0</v>
+      </c>
+      <c r="L857">
+        <v>0</v>
+      </c>
+      <c r="M857">
+        <v>0</v>
+      </c>
+      <c r="N857">
+        <v>0</v>
+      </c>
+      <c r="O857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B858" t="s">
+        <v>841</v>
+      </c>
+      <c r="C858">
+        <v>0</v>
+      </c>
+      <c r="D858">
+        <v>0</v>
+      </c>
+      <c r="E858">
+        <v>0</v>
+      </c>
+      <c r="F858" t="s">
+        <v>840</v>
+      </c>
+      <c r="G858">
+        <v>0</v>
+      </c>
+      <c r="H858">
+        <v>0</v>
+      </c>
+      <c r="I858">
+        <v>0</v>
+      </c>
+      <c r="J858">
+        <v>0</v>
+      </c>
+      <c r="K858">
+        <v>0</v>
+      </c>
+      <c r="L858">
+        <v>0</v>
+      </c>
+      <c r="M858">
+        <v>0</v>
+      </c>
+      <c r="N858">
+        <v>0</v>
+      </c>
+      <c r="O858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B859" t="s">
+        <v>841</v>
+      </c>
+      <c r="C859">
+        <v>0</v>
+      </c>
+      <c r="D859">
+        <v>0</v>
+      </c>
+      <c r="E859">
+        <v>0</v>
+      </c>
+      <c r="F859" t="s">
+        <v>840</v>
+      </c>
+      <c r="G859">
+        <v>0</v>
+      </c>
+      <c r="H859">
+        <v>0</v>
+      </c>
+      <c r="I859">
+        <v>0</v>
+      </c>
+      <c r="J859">
+        <v>0</v>
+      </c>
+      <c r="K859">
+        <v>0</v>
+      </c>
+      <c r="L859">
+        <v>0</v>
+      </c>
+      <c r="M859">
+        <v>0</v>
+      </c>
+      <c r="N859">
+        <v>0</v>
+      </c>
+      <c r="O859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B860" t="s">
+        <v>841</v>
+      </c>
+      <c r="C860">
+        <v>0</v>
+      </c>
+      <c r="D860">
+        <v>0</v>
+      </c>
+      <c r="E860">
+        <v>0</v>
+      </c>
+      <c r="F860" t="s">
+        <v>840</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+      <c r="H860">
+        <v>0</v>
+      </c>
+      <c r="I860">
+        <v>0</v>
+      </c>
+      <c r="J860">
+        <v>0</v>
+      </c>
+      <c r="K860">
+        <v>0</v>
+      </c>
+      <c r="L860">
+        <v>0</v>
+      </c>
+      <c r="M860">
+        <v>0</v>
+      </c>
+      <c r="N860">
+        <v>0</v>
+      </c>
+      <c r="O860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B861" t="s">
+        <v>841</v>
+      </c>
+      <c r="C861">
+        <v>0</v>
+      </c>
+      <c r="D861">
+        <v>0</v>
+      </c>
+      <c r="E861">
+        <v>0</v>
+      </c>
+      <c r="F861" t="s">
+        <v>840</v>
+      </c>
+      <c r="G861">
+        <v>0</v>
+      </c>
+      <c r="H861">
+        <v>0</v>
+      </c>
+      <c r="I861">
+        <v>0</v>
+      </c>
+      <c r="J861">
+        <v>0</v>
+      </c>
+      <c r="K861">
+        <v>0</v>
+      </c>
+      <c r="L861">
+        <v>0</v>
+      </c>
+      <c r="M861">
+        <v>0</v>
+      </c>
+      <c r="N861">
+        <v>0</v>
+      </c>
+      <c r="O861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B862" t="s">
+        <v>841</v>
+      </c>
+      <c r="C862">
+        <v>0</v>
+      </c>
+      <c r="D862">
+        <v>0</v>
+      </c>
+      <c r="E862">
+        <v>0</v>
+      </c>
+      <c r="F862" t="s">
+        <v>840</v>
+      </c>
+      <c r="G862">
+        <v>0</v>
+      </c>
+      <c r="H862">
+        <v>0</v>
+      </c>
+      <c r="I862">
+        <v>0</v>
+      </c>
+      <c r="J862">
+        <v>0</v>
+      </c>
+      <c r="K862">
+        <v>0</v>
+      </c>
+      <c r="L862">
+        <v>0</v>
+      </c>
+      <c r="M862">
+        <v>0</v>
+      </c>
+      <c r="N862">
+        <v>0</v>
+      </c>
+      <c r="O862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B863" t="s">
+        <v>841</v>
+      </c>
+      <c r="C863">
+        <v>0</v>
+      </c>
+      <c r="D863">
+        <v>0</v>
+      </c>
+      <c r="E863">
+        <v>0</v>
+      </c>
+      <c r="F863" t="s">
+        <v>840</v>
+      </c>
+      <c r="G863">
+        <v>0</v>
+      </c>
+      <c r="H863">
+        <v>0</v>
+      </c>
+      <c r="I863">
+        <v>0</v>
+      </c>
+      <c r="J863">
+        <v>0</v>
+      </c>
+      <c r="K863">
+        <v>0</v>
+      </c>
+      <c r="L863">
+        <v>0</v>
+      </c>
+      <c r="M863">
+        <v>0</v>
+      </c>
+      <c r="N863">
+        <v>0</v>
+      </c>
+      <c r="O863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B864" t="s">
+        <v>841</v>
+      </c>
+      <c r="C864">
+        <v>0</v>
+      </c>
+      <c r="D864">
+        <v>0</v>
+      </c>
+      <c r="E864">
+        <v>0</v>
+      </c>
+      <c r="F864" t="s">
+        <v>840</v>
+      </c>
+      <c r="G864">
+        <v>0</v>
+      </c>
+      <c r="H864">
+        <v>0</v>
+      </c>
+      <c r="I864">
+        <v>0</v>
+      </c>
+      <c r="J864">
+        <v>0</v>
+      </c>
+      <c r="K864">
+        <v>0</v>
+      </c>
+      <c r="L864">
+        <v>0</v>
+      </c>
+      <c r="M864">
+        <v>0</v>
+      </c>
+      <c r="N864">
+        <v>0</v>
+      </c>
+      <c r="O864">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A830:A864">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B1 B2 E1:F1" numberStoredAsText="1"/>

--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB923557-2376-4823-9C7F-D2C57917B4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D4E1C5-C37A-4A34-9BF6-8B1354ABE90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1890" windowWidth="21585" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="1040">
   <si>
     <t>PlayerName</t>
   </si>
@@ -3131,6 +3131,15 @@
   </si>
   <si>
     <t>interz</t>
+  </si>
+  <si>
+    <t>kyourezz</t>
+  </si>
+  <si>
+    <t>bitou</t>
+  </si>
+  <si>
+    <t>maxilus</t>
   </si>
 </sst>
 </file>
@@ -3525,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O864"/>
+  <dimension ref="A1:O867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A810" workbookViewId="0">
-      <selection activeCell="G816" sqref="G816"/>
+    <sheetView tabSelected="1" topLeftCell="A846" workbookViewId="0">
+      <selection activeCell="Q866" sqref="Q866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44146,6 +44155,147 @@
         <v>0</v>
       </c>
     </row>
+    <row r="865" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B865" t="s">
+        <v>841</v>
+      </c>
+      <c r="C865">
+        <v>0</v>
+      </c>
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865">
+        <v>0</v>
+      </c>
+      <c r="F865" t="s">
+        <v>840</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+      <c r="H865">
+        <v>0</v>
+      </c>
+      <c r="I865">
+        <v>0</v>
+      </c>
+      <c r="J865">
+        <v>0</v>
+      </c>
+      <c r="K865">
+        <v>0</v>
+      </c>
+      <c r="L865">
+        <v>0</v>
+      </c>
+      <c r="M865">
+        <v>0</v>
+      </c>
+      <c r="N865">
+        <v>0</v>
+      </c>
+      <c r="O865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B866" t="s">
+        <v>841</v>
+      </c>
+      <c r="C866">
+        <v>0</v>
+      </c>
+      <c r="D866">
+        <v>0</v>
+      </c>
+      <c r="E866">
+        <v>0</v>
+      </c>
+      <c r="F866" t="s">
+        <v>840</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+      <c r="H866">
+        <v>0</v>
+      </c>
+      <c r="I866">
+        <v>0</v>
+      </c>
+      <c r="J866">
+        <v>0</v>
+      </c>
+      <c r="K866">
+        <v>0</v>
+      </c>
+      <c r="L866">
+        <v>0</v>
+      </c>
+      <c r="M866">
+        <v>0</v>
+      </c>
+      <c r="N866">
+        <v>0</v>
+      </c>
+      <c r="O866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B867" t="s">
+        <v>841</v>
+      </c>
+      <c r="C867">
+        <v>0</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867">
+        <v>0</v>
+      </c>
+      <c r="F867" t="s">
+        <v>840</v>
+      </c>
+      <c r="G867">
+        <v>0</v>
+      </c>
+      <c r="H867">
+        <v>0</v>
+      </c>
+      <c r="I867">
+        <v>0</v>
+      </c>
+      <c r="J867">
+        <v>0</v>
+      </c>
+      <c r="K867">
+        <v>0</v>
+      </c>
+      <c r="L867">
+        <v>0</v>
+      </c>
+      <c r="M867">
+        <v>0</v>
+      </c>
+      <c r="N867">
+        <v>0</v>
+      </c>
+      <c r="O867">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A830:A864">

--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F9BE24-2ECA-470E-9878-E1007D7A8A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707C3D8-B0BF-46FF-89F9-0A34F9DD963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1055">
   <si>
     <t>PlayerName</t>
   </si>
@@ -3152,6 +3152,39 @@
   </si>
   <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Ksovo</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -3548,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P867"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3708,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3758,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3858,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3908,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3958,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4008,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4058,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4108,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4158,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4208,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4308,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4358,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4408,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4508,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -4558,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4658,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4708,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4758,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4808,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4858,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4908,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4958,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -5008,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -5058,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -5108,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">

--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A4B22B-DADD-42FC-BB2D-234B1C0219A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68922758-C10F-499D-A19D-476D58AFFBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1076">
   <si>
     <t>PlayerName</t>
   </si>
@@ -3167,9 +3167,6 @@
   </si>
   <si>
     <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Ksovo</t>
   </si>
   <si>
     <t>France</t>
@@ -3647,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P212" sqref="P212"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4907,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -5007,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -5057,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -5107,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -5157,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -5207,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -5407,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5457,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -5507,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -5557,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -5607,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -5657,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -5707,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -5807,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -5857,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -6057,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -6107,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -6157,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -6257,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -6307,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -6357,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -6407,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -6457,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -6757,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -6807,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -6857,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -6907,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -6957,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -7257,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -7307,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -7507,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -7657,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -7757,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -7807,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -7857,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -7907,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -8257,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -8307,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -8507,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -8557,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -8607,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -8657,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -8707,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -8857,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="P104" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -8907,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="P105" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -8957,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -9107,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="P109" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -9257,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="P112" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -9307,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="P113" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -9357,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -9407,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="P115" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -9457,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="P116" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -9607,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="P119" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -9707,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="P121" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -9807,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="P123" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -10107,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="P129" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -10607,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="P139" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -11007,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="P147" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -11157,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P150" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -11257,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="P152" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -11357,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="P154" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -11407,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="P155" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -11507,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="P157" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -11557,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="P158" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -11607,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="P159" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -11657,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="P160" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -11707,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="P161" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -11757,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="P162" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -11807,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="P163" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
@@ -11907,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="P165" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -11957,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="P166" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -12257,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="P172" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -12307,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="P173" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -12357,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="P174" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -12407,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="P175" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -12457,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="P176" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -12757,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="P182" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -12807,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="P183" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
@@ -12907,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="P185" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
@@ -12957,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="P186" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
@@ -13007,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="P187" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
@@ -13057,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="P188" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
@@ -13107,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="P189" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
@@ -13157,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
@@ -13207,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
@@ -13257,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="P192" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
@@ -13457,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="P196" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
@@ -13757,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="P202" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -13857,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="P204" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -13907,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="P205" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
@@ -14007,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="P207" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -14057,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="P208" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
@@ -14107,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="P209" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
@@ -14157,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="P210" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">

--- a/file/players_updated.xlsx
+++ b/file/players_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68922758-C10F-499D-A19D-476D58AFFBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA5E9E-7EA8-4A91-8C67-B8C355EBBCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1079">
   <si>
     <t>PlayerName</t>
   </si>
@@ -3248,6 +3248,15 @@
   </si>
   <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Czechia</t>
   </si>
 </sst>
 </file>
@@ -3644,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q227" sqref="Q227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14253,6 +14262,9 @@
       <c r="O212">
         <v>0</v>
       </c>
+      <c r="P212" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -14300,6 +14312,9 @@
       <c r="O213">
         <v>0</v>
       </c>
+      <c r="P213" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
@@ -14347,6 +14362,9 @@
       <c r="O214">
         <v>0</v>
       </c>
+      <c r="P214" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
@@ -14394,6 +14412,9 @@
       <c r="O215">
         <v>0</v>
       </c>
+      <c r="P215" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
@@ -14441,6 +14462,9 @@
       <c r="O216">
         <v>0</v>
       </c>
+      <c r="P216" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
@@ -14488,6 +14512,9 @@
       <c r="O217">
         <v>0</v>
       </c>
+      <c r="P217" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
@@ -14535,6 +14562,9 @@
       <c r="O218">
         <v>0</v>
       </c>
+      <c r="P218" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -14582,6 +14612,9 @@
       <c r="O219">
         <v>0</v>
       </c>
+      <c r="P219" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -14629,6 +14662,9 @@
       <c r="O220">
         <v>0</v>
       </c>
+      <c r="P220" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -14676,6 +14712,9 @@
       <c r="O221">
         <v>0</v>
       </c>
+      <c r="P221" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -14723,6 +14762,9 @@
       <c r="O222">
         <v>0</v>
       </c>
+      <c r="P222" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -14770,6 +14812,9 @@
       <c r="O223">
         <v>0</v>
       </c>
+      <c r="P223" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
@@ -14817,8 +14862,11 @@
       <c r="O224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P224" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>269</v>
       </c>
@@ -14864,8 +14912,11 @@
       <c r="O225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P225" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>270</v>
       </c>
@@ -14911,8 +14962,11 @@
       <c r="O226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P226" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>271</v>
       </c>
@@ -14959,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>272</v>
       </c>
@@ -15006,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>273</v>
       </c>
@@ -15053,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>274</v>
       </c>
@@ -15100,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>275</v>
       </c>
@@ -15147,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>276</v>
       </c>
@@ -15194,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>277</v>
       </c>
@@ -15241,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>278</v>
       </c>
@@ -15288,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>279</v>
       </c>
@@ -15335,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>280</v>
       </c>
@@ -15382,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>281</v>
       </c>
@@ -15429,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>282</v>
       </c>
@@ -15476,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>283</v>
       </c>
@@ -15523,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>284</v>
       </c>
